--- a/src/lab10/lab10b/LoadTest.xlsx
+++ b/src/lab10/lab10b/LoadTest.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O17"/>
+  <dimension ref="C2:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +506,12 @@
         <f>1000/C8</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="K8">
+        <v>248</v>
+      </c>
+      <c r="L8">
+        <v>0.248</v>
+      </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9">
@@ -514,14 +521,26 @@
         <f>1000/C9</f>
         <v>0.5</v>
       </c>
+      <c r="K9">
+        <v>476</v>
+      </c>
+      <c r="L9">
+        <v>0.47599999999999998</v>
+      </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1900</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D17" si="0">1000/C10</f>
+        <f t="shared" ref="D10:D18" si="0">1000/C10</f>
         <v>0.52631578947368418</v>
+      </c>
+      <c r="K10">
+        <v>542</v>
+      </c>
+      <c r="L10">
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
@@ -532,6 +551,12 @@
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
+      <c r="K11">
+        <v>654</v>
+      </c>
+      <c r="L11">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12">
@@ -541,6 +566,12 @@
         <f t="shared" si="0"/>
         <v>0.58823529411764708</v>
       </c>
+      <c r="K12">
+        <v>660</v>
+      </c>
+      <c r="L12">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13">
@@ -550,6 +581,12 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
+      <c r="K13">
+        <v>885</v>
+      </c>
+      <c r="L13">
+        <v>0.88500000000000001</v>
+      </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14">
@@ -559,6 +596,12 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="K14">
+        <v>1023</v>
+      </c>
+      <c r="L14">
+        <v>1.0229999999999999</v>
+      </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -568,6 +611,12 @@
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
+      <c r="K15">
+        <v>1369</v>
+      </c>
+      <c r="L15">
+        <v>1.369</v>
+      </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -577,14 +626,41 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1602</v>
+      </c>
+      <c r="L16">
+        <v>1.6020000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1200</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
+      </c>
+      <c r="K17">
+        <v>1876</v>
+      </c>
+      <c r="L17">
+        <v>1.8740000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>15879</v>
+      </c>
+      <c r="L18">
+        <v>15.879</v>
       </c>
     </row>
   </sheetData>
